--- a/output/seasonal_player_counts.xlsx
+++ b/output/seasonal_player_counts.xlsx
@@ -1,117 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>players_found</t>
-  </si>
-  <si>
-    <t>players_total</t>
-  </si>
-  <si>
-    <t>players_captured</t>
-  </si>
-  <si>
-    <t>extra_players_captured</t>
-  </si>
-  <si>
-    <t>season</t>
-  </si>
-  <si>
-    <t>M2_01 Wolf 2020</t>
-  </si>
-  <si>
-    <t>M2_02 Love 2020</t>
-  </si>
-  <si>
-    <t>M2_03 Bear 2020</t>
-  </si>
-  <si>
-    <t>M2_04 Elf 2020</t>
-  </si>
-  <si>
-    <t>M2_05 Viper 2020</t>
-  </si>
-  <si>
-    <t>M2_06 Magic 2020</t>
-  </si>
-  <si>
-    <t>M2_07 Griffin 2020</t>
-  </si>
-  <si>
-    <t>M2_08 Draconid 2020</t>
-  </si>
-  <si>
-    <t>M2_09 Dryad 2020</t>
-  </si>
-  <si>
-    <t>M2_10 Cat 2020</t>
-  </si>
-  <si>
-    <t>M2_11 Mahakam 2020</t>
-  </si>
-  <si>
-    <t>M2_12 Wild Hunt 2020</t>
-  </si>
-  <si>
-    <t>M3_01 Wolf 2021</t>
-  </si>
-  <si>
-    <t>M3_02 Love 2021</t>
-  </si>
-  <si>
-    <t>M3_03 Bear 2021</t>
-  </si>
-  <si>
-    <t>M3_04 Elf 2021</t>
-  </si>
-  <si>
-    <t>M3_05 Viper 2021</t>
-  </si>
-  <si>
-    <t>M3_06 Magic 2021</t>
-  </si>
-  <si>
-    <t>M3_07 Griffin 2021</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -126,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -442,354 +420,522 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>season</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>players_found</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>players_total</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>players_captured</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>extra_players_captured</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>M2_01 Wolf 2020</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>2905</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>2997</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>96.93026359693026</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>32.84671532846716</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>M2_02 Love 2020</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>3984</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>4883</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>81.58918697522016</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>55.5610479485912</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>M2_03 Bear 2020</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>4772</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>6632</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>71.95416164053076</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>50.68928950159066</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>M2_04 Elf 2020</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>6070</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>10209</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>59.45734156136742</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>43.6794121649204</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>M2_05 Viper 2020</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>5977</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>10079</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>59.30151800773886</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>43.17772544673777</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>M2_06 Magic 2020</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>6104</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>9919</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>61.53846153846154</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>45.9555177787222</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>M2_07 Griffin 2020</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>7372</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>14791</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>49.84111959975661</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>37.81745033945185</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>M2_08 Draconid 2020</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>7037</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>13800</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>50.99275362318841</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>38.18098720292505</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>M2_09 Dryad 2020</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>7056</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>14554</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>48.48151710869864</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>35.88164870873953</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11">
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>M2_10 Cat 2020</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>6987</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>16011</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>43.63874836050216</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>31.38164398144628</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>M2_11 Mahakam 2020</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
         <v>6644</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>16752</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>39.66093600764088</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>27.23869853152894</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>M2_12 Wild Hunt 2020</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
         <v>7806</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>22464</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>34.74893162393163</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>25.2295449908182</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>M3_01 Wolf 2021</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
         <v>6197</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>13428</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>46.14983616324099</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>31.57645722937169</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>M3_02 Love 2021</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
         <v>7119</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>16016</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="n">
         <v>44.4493006993007</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>32.3730617208878</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>M3_03 Bear 2021</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
         <v>7012</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>13636</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>51.42270460545615</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>38.53006681514476</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>M3_04 Elf 2021</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
         <v>10107</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>16049</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="n">
         <v>62.97588634805907</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>54.94730457199181</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>M3_05 Viper 2021</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
         <v>7771</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>17623</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="n">
         <v>44.09578391874255</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="n">
         <v>33.26559642349116</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>M3_06 Magic 2021</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
         <v>10899</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>17442</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="n">
         <v>62.48710010319918</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="n">
         <v>55.1296118502263</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>M3_07 Griffin 2021</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
         <v>7771</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>16772</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="n">
         <v>46.33317433818269</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="n">
         <v>35.30046003450258</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>M3_08 Draconid 2021</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>8333</v>
+      </c>
+      <c r="C21" t="n">
+        <v>17523</v>
+      </c>
+      <c r="D21" t="n">
+        <v>47.55464246989671</v>
+      </c>
+      <c r="E21" t="n">
+        <v>37.32524040100935</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>M3_09 Dryad 2021</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>7561</v>
+      </c>
+      <c r="C22" t="n">
+        <v>17486</v>
+      </c>
+      <c r="D22" t="n">
+        <v>43.24030653093904</v>
+      </c>
+      <c r="E22" t="n">
+        <v>32.14139204156981</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>M3_10 Cat 2021</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>8023</v>
+      </c>
+      <c r="C23" t="n">
+        <v>14048</v>
+      </c>
+      <c r="D23" t="n">
+        <v>57.11133257403189</v>
+      </c>
+      <c r="E23" t="n">
+        <v>46.14765820521988</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>M3_11 Mahakam 2021</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>9147</v>
+      </c>
+      <c r="C24" t="n">
+        <v>19902</v>
+      </c>
+      <c r="D24" t="n">
+        <v>45.96020500452216</v>
+      </c>
+      <c r="E24" t="n">
+        <v>36.89120995188358</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>M3_12 Wild Hunt 2021</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>9566</v>
+      </c>
+      <c r="C25" t="n">
+        <v>21651</v>
+      </c>
+      <c r="D25" t="n">
+        <v>44.18271673363817</v>
+      </c>
+      <c r="E25" t="n">
+        <v>35.68729711031877</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>M4_01 Wolf 2022</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>7607</v>
+      </c>
+      <c r="C26" t="n">
+        <v>15520</v>
+      </c>
+      <c r="D26" t="n">
+        <v>49.01417525773196</v>
+      </c>
+      <c r="E26" t="n">
+        <v>37.49605055292259</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/output/seasonal_player_counts.xlsx
+++ b/output/seasonal_player_counts.xlsx
@@ -1,37 +1,138 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+  <si>
+    <t>players_found</t>
+  </si>
+  <si>
+    <t>players_total</t>
+  </si>
+  <si>
+    <t>players_captured</t>
+  </si>
+  <si>
+    <t>extra_players_captured</t>
+  </si>
+  <si>
+    <t>season</t>
+  </si>
+  <si>
+    <t>M2_01 Wolf 2020</t>
+  </si>
+  <si>
+    <t>M2_02 Love 2020</t>
+  </si>
+  <si>
+    <t>M2_03 Bear 2020</t>
+  </si>
+  <si>
+    <t>M2_04 Elf 2020</t>
+  </si>
+  <si>
+    <t>M2_05 Viper 2020</t>
+  </si>
+  <si>
+    <t>M2_06 Magic 2020</t>
+  </si>
+  <si>
+    <t>M2_07 Griffin 2020</t>
+  </si>
+  <si>
+    <t>M2_08 Draconid 2020</t>
+  </si>
+  <si>
+    <t>M2_09 Dryad 2020</t>
+  </si>
+  <si>
+    <t>M2_10 Cat 2020</t>
+  </si>
+  <si>
+    <t>M2_11 Mahakam 2020</t>
+  </si>
+  <si>
+    <t>M2_12 Wild Hunt 2020</t>
+  </si>
+  <si>
+    <t>M3_01 Wolf 2021</t>
+  </si>
+  <si>
+    <t>M3_02 Love 2021</t>
+  </si>
+  <si>
+    <t>M3_03 Bear 2021</t>
+  </si>
+  <si>
+    <t>M3_04 Elf 2021</t>
+  </si>
+  <si>
+    <t>M3_05 Viper 2021</t>
+  </si>
+  <si>
+    <t>M3_06 Magic 2021</t>
+  </si>
+  <si>
+    <t>M3_07 Griffin 2021</t>
+  </si>
+  <si>
+    <t>M3_08 Draconid 2021</t>
+  </si>
+  <si>
+    <t>M3_09 Dryad 2021</t>
+  </si>
+  <si>
+    <t>M3_10 Cat 2021</t>
+  </si>
+  <si>
+    <t>M3_11 Mahakam 2021</t>
+  </si>
+  <si>
+    <t>M3_12 Wild Hunt 2021</t>
+  </si>
+  <si>
+    <t>M4_01 Wolf 2022</t>
+  </si>
+  <si>
+    <t>M4_02 Love 2022</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +147,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,522 +463,473 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>season</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>players_found</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>players_total</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>players_captured</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>extra_players_captured</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>M2_01 Wolf 2020</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
         <v>2905</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>2997</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>96.93026359693026</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>32.84671532846716</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>M2_02 Love 2020</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
         <v>3984</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>4883</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>81.58918697522016</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>55.5610479485912</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>M2_03 Bear 2020</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
         <v>4772</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>6632</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>71.95416164053076</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>50.68928950159066</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>M2_04 Elf 2020</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
         <v>6070</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>10209</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>59.45734156136742</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>43.6794121649204</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>M2_05 Viper 2020</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
         <v>5977</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>10079</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>59.30151800773886</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>43.17772544673777</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>M2_06 Magic 2020</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
         <v>6104</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>9919</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>61.53846153846154</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>45.9555177787222</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>M2_07 Griffin 2020</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
         <v>7372</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>14791</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>49.84111959975661</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>37.81745033945185</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>M2_08 Draconid 2020</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
         <v>7037</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>13800</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>50.99275362318841</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>38.18098720292505</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>M2_09 Dryad 2020</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
         <v>7056</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>14554</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>48.48151710869864</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>35.88164870873953</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>M2_10 Cat 2020</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
         <v>6987</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>16011</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>43.63874836050216</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>31.38164398144628</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>M2_11 Mahakam 2020</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
         <v>6644</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>16752</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>39.66093600764088</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>27.23869853152894</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>M2_12 Wild Hunt 2020</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
         <v>7806</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>22464</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>34.74893162393163</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>25.2295449908182</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>M3_01 Wolf 2021</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
         <v>6197</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>13428</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>46.14983616324099</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>31.57645722937169</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>M3_02 Love 2021</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
         <v>7119</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>16016</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>44.4493006993007</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>32.3730617208878</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>M3_03 Bear 2021</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
         <v>7012</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>13636</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>51.42270460545615</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>38.53006681514476</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>M3_04 Elf 2021</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
         <v>10107</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>16049</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>62.97588634805907</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>54.94730457199181</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>M3_05 Viper 2021</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
         <v>7771</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>17623</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>44.09578391874255</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>33.26559642349116</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>M3_06 Magic 2021</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
         <v>10899</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>17442</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>62.48710010319918</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>55.1296118502263</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>M3_07 Griffin 2021</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
         <v>7771</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>16772</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>46.33317433818269</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>35.30046003450258</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>M3_08 Draconid 2021</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
         <v>8333</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>17523</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>47.55464246989671</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>37.32524040100935</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>M3_09 Dryad 2021</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
         <v>7561</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>17486</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>43.24030653093904</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>32.14139204156981</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>M3_10 Cat 2021</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
         <v>8023</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>14048</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>57.11133257403189</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>46.14765820521988</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>M3_11 Mahakam 2021</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
         <v>9147</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>19902</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>45.96020500452216</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>36.89120995188358</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>M3_12 Wild Hunt 2021</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
         <v>9566</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>21651</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>44.18271673363817</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>35.68729711031877</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>M4_01 Wolf 2022</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26">
         <v>7607</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>15520</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>49.01417525773196</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>37.49605055292259</v>
       </c>
     </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27">
+        <v>2972</v>
+      </c>
+      <c r="C27">
+        <v>14794</v>
+      </c>
+      <c r="D27">
+        <v>20.08922536163309</v>
+      </c>
+      <c r="E27">
+        <v>0.9384950561421149</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>